--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Hardwicke/Thomas_Hardwicke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Hardwicke/Thomas_Hardwicke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Hardwicke est un militaire et un naturaliste britannique, né en 1755 et mort le 3 mai 1835.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’âge de 22 ans, il rejoint la Compagnie anglaise des Indes orientales et séjourne en Inde de 1777 à 1823. Il atteint le rang de major-général en 1819, se retire du service en 1823 et revient alors en Grande-Bretagne.
 Durant sa carrière militaire en Inde, il voyage beaucoup à travers le sous-continent. Il commence une très riche collection de spécimens zoologiques et d’illustrations naturalistes. Il emploie de nombreux artistes indiens mais ceux-ci sont restés inconnus. Ils ont su adapter leur style à la demande d’illustrations scientifiques et utilisent l’aquarelle. La collection, comprenant 4 500 illustrations, fut léguée au British Museum en 1835 puis, en partie, transférée plus tard de Natural History Museum de Londres.
